--- a/landing_zone/output_spreadsheet.xlsx
+++ b/landing_zone/output_spreadsheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-38400" yWindow="-21100" windowWidth="38400" windowHeight="21100" tabRatio="830" firstSheet="0" activeTab="10" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="-21100" windowWidth="38400" windowHeight="21100" tabRatio="830" firstSheet="0" activeTab="8" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Start" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,14 +12,12 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Network Input" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Compartment Input" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Network Design" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Network Diagram" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Compartment Design" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Compartment Diagram" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brick Versions" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Provider" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Backend" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Unit_Cost" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CIDR Cheat Sheet" sheetId="14" state="hidden" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Compartment Design" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brick Versions" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Provider" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Backend" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Unit_Cost" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CIDR Cheat Sheet" sheetId="12" state="hidden" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Compartment Input'!$A$1:$B$8</definedName>
@@ -961,6 +959,93 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <twoCellAnchor editAs="oneCell">
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <to>
+      <col>9</col>
+      <colOff>365760</colOff>
+      <row>44</row>
+      <rowOff>156978</rowOff>
+    </to>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="Picture 2"/>
+        <cNvPicPr>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cNvPicPr>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="0" y="0"/>
+          <a:ext cx="7772400" cy="9097778"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </twoCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <twoCellAnchor editAs="oneCell">
+    <from>
+      <col>0</col>
+      <colOff>266700</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <to>
+      <col>19</col>
+      <colOff>190500</colOff>
+      <row>54</row>
+      <rowOff>114300</rowOff>
+    </to>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Picture 1"/>
+        <cNvPicPr>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cNvPicPr>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="266700" y="0"/>
+          <a:ext cx="12712700" cy="11087100"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </twoCellAnchor>
   <oneCellAnchor>
     <from>
       <col>0</col>
@@ -971,11 +1056,11 @@
     <ext cx="12468225" cy="10887075"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -989,8 +1074,49 @@
 </wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <twoCellAnchor editAs="oneCell">
+    <from>
+      <col>0</col>
+      <colOff>127000</colOff>
+      <row>0</row>
+      <rowOff>101600</rowOff>
+    </from>
+    <to>
+      <col>12</col>
+      <colOff>50800</colOff>
+      <row>36</row>
+      <rowOff>38100</rowOff>
+    </to>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Picture 1"/>
+        <cNvPicPr>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cNvPicPr>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="127000" y="101600"/>
+          <a:ext cx="8001000" cy="7251700"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </twoCellAnchor>
   <oneCellAnchor>
     <from>
       <col>0</col>
@@ -1001,7 +1127,7 @@
     <ext cx="6543675" cy="5943600"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
@@ -1326,7 +1452,7 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="109" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -1627,332 +1753,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D26"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col width="40.6640625" customWidth="1" style="57" min="1" max="1"/>
-    <col width="28.6640625" customWidth="1" style="57" min="2" max="2"/>
-    <col width="9" customWidth="1" style="57" min="3" max="3"/>
-    <col width="79.33203125" customWidth="1" style="57" min="4" max="4"/>
-    <col width="9" customWidth="1" style="57" min="5" max="16384"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="16" customHeight="1" s="17">
-      <c r="A1" s="60" t="inlineStr">
-        <is>
-          <t>Artifact</t>
-        </is>
-      </c>
-      <c r="B1" s="60" t="inlineStr">
-        <is>
-          <t>Location</t>
-        </is>
-      </c>
-      <c r="C1" s="60" t="inlineStr">
-        <is>
-          <t>Version</t>
-        </is>
-      </c>
-      <c r="D1" s="59" t="inlineStr">
-        <is>
-          <t>URL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="58" t="inlineStr">
-        <is>
-          <t>terraform-oci-cloudbricks-network-artifacts</t>
-        </is>
-      </c>
-      <c r="B2" s="58" t="inlineStr">
-        <is>
-          <t>github.com/oracle-devrel/</t>
-        </is>
-      </c>
-      <c r="C2" s="58" t="inlineStr">
-        <is>
-          <t>v2.0.1</t>
-        </is>
-      </c>
-      <c r="D2" s="58" t="inlineStr">
-        <is>
-          <t>git::ssh://git@github.com/oracle-devrel/terraform-oci-cloudbricks-network-artifacts.git?ref=v2.0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="58" t="inlineStr">
-        <is>
-          <t>terraform-oci-cloudbricks-compartment</t>
-        </is>
-      </c>
-      <c r="B3" s="58" t="inlineStr">
-        <is>
-          <t>github.com/oracle-devrel/</t>
-        </is>
-      </c>
-      <c r="C3" s="58" t="inlineStr">
-        <is>
-          <t>v1.0.3</t>
-        </is>
-      </c>
-      <c r="D3" s="58" t="inlineStr">
-        <is>
-          <t>git::ssh://git@github.com/oracle-devrel/terraform-oci-cloudbricks-compartment.git?ref=v1.0.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="69" t="n"/>
-      <c r="B4" s="58" t="n"/>
-      <c r="C4" s="69" t="n"/>
-      <c r="D4" s="58" t="str"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="58" t="n"/>
-      <c r="B5" s="58" t="n"/>
-      <c r="C5" s="58" t="n"/>
-      <c r="D5" s="58" t="str"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="58" t="n"/>
-      <c r="B6" s="58" t="n"/>
-      <c r="C6" s="58" t="n"/>
-      <c r="D6" s="58" t="str"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="58" t="n"/>
-      <c r="B7" s="58" t="n"/>
-      <c r="C7" s="58" t="n"/>
-      <c r="D7" s="58" t="str"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="58" t="n"/>
-      <c r="B8" s="58" t="n"/>
-      <c r="C8" s="58" t="n"/>
-      <c r="D8" s="58" t="str"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="58" t="n"/>
-      <c r="B9" s="58" t="n"/>
-      <c r="C9" s="58" t="n"/>
-      <c r="D9" s="58" t="str"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="58" t="n"/>
-      <c r="B10" s="58" t="n"/>
-      <c r="C10" s="58" t="n"/>
-      <c r="D10" s="58" t="str"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="58" t="n"/>
-      <c r="B11" s="58" t="n"/>
-      <c r="C11" s="58" t="n"/>
-      <c r="D11" s="58" t="str"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="58" t="n"/>
-      <c r="B12" s="58" t="n"/>
-      <c r="C12" s="58" t="n"/>
-      <c r="D12" s="58" t="str"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="58" t="n"/>
-      <c r="B13" s="58" t="n"/>
-      <c r="C13" s="58" t="n"/>
-      <c r="D13" s="58" t="str"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="58" t="n"/>
-      <c r="B14" s="58" t="n"/>
-      <c r="C14" s="58" t="n"/>
-      <c r="D14" s="58" t="str"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="58" t="n"/>
-      <c r="B15" s="58" t="n"/>
-      <c r="C15" s="58" t="n"/>
-      <c r="D15" s="58" t="str"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="58" t="n"/>
-      <c r="B16" s="58" t="n"/>
-      <c r="C16" s="58" t="n"/>
-      <c r="D16" s="58" t="str"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="58" t="n"/>
-      <c r="B17" s="58" t="n"/>
-      <c r="C17" s="58" t="n"/>
-      <c r="D17" s="58" t="str"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="58" t="n"/>
-      <c r="B18" s="58" t="n"/>
-      <c r="C18" s="58" t="n"/>
-      <c r="D18" s="58" t="str"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="58" t="n"/>
-      <c r="B19" s="58" t="n"/>
-      <c r="C19" s="58" t="n"/>
-      <c r="D19" s="58" t="str"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="58" t="n"/>
-      <c r="B20" s="58" t="n"/>
-      <c r="C20" s="58" t="n"/>
-      <c r="D20" s="58" t="str"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="58" t="n"/>
-      <c r="B21" s="58" t="n"/>
-      <c r="C21" s="58" t="n"/>
-      <c r="D21" s="58" t="str"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="58" t="n"/>
-      <c r="B22" s="58" t="n"/>
-      <c r="C22" s="58" t="n"/>
-      <c r="D22" s="58" t="str"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="58" t="n"/>
-      <c r="B23" s="58" t="n"/>
-      <c r="C23" s="58" t="n"/>
-      <c r="D23" s="58" t="str"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="58" t="n"/>
-      <c r="B24" s="58" t="n"/>
-      <c r="C24" s="58" t="n"/>
-      <c r="D24" s="58" t="str"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="58" t="n"/>
-      <c r="B25" s="58" t="n"/>
-      <c r="C25" s="58" t="n"/>
-      <c r="D25" s="58" t="str"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="58" t="n"/>
-      <c r="B26" s="58" t="n"/>
-      <c r="C26" s="58" t="n"/>
-      <c r="D26" s="58" t="str"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col width="16" customWidth="1" style="57" min="1" max="1"/>
-    <col width="70.33203125" customWidth="1" style="57" min="2" max="2"/>
-    <col width="9" customWidth="1" style="57" min="3" max="16384"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="16" customHeight="1" s="17">
-      <c r="A1" s="60" t="inlineStr">
-        <is>
-          <t>Parameter</t>
-        </is>
-      </c>
-      <c r="B1" s="60" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="58" t="inlineStr">
-        <is>
-          <t>tenancy_ocid</t>
-        </is>
-      </c>
-      <c r="B2" s="69" t="inlineStr">
-        <is>
-          <t>ocid1.tenancy.oc1..aaaaaaaae4fky66zxlc3nhlsx4i3utq4hchaxieu5ygm44vx6t2qas4yec4q</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="58" t="inlineStr">
-        <is>
-          <t>region</t>
-        </is>
-      </c>
-      <c r="B3" s="69" t="inlineStr">
-        <is>
-          <t>sa-santiago-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="58" t="inlineStr">
-        <is>
-          <t>user_ocid</t>
-        </is>
-      </c>
-      <c r="B4" s="69" t="inlineStr">
-        <is>
-          <t>ocid1.user.oc1..aaaaaaaad727zxb3lict64henfdecajrwfis7rbg5lz4ja2lvqkvktotvwka</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="58" t="inlineStr">
-        <is>
-          <t>fingerprint</t>
-        </is>
-      </c>
-      <c r="B5" s="69" t="inlineStr">
-        <is>
-          <t>60:ab:f7:ee:8f:41:76:47:fa:cb:5f:ff:1b:42:13:76</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="58" t="inlineStr">
-        <is>
-          <t>private_key_path</t>
-        </is>
-      </c>
-      <c r="B6" s="69" t="inlineStr">
-        <is>
-          <t>/home/ubuntu/.ssh/private.pem</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2025,7 +1825,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2033,7 +1833,7 @@
   </sheetPr>
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
@@ -2931,7 +2731,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3103,13 +2903,14 @@
   </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="125" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:R8"/>
+    <sheetView showGridLines="0" topLeftCell="A11" zoomScale="125" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3168,7 +2969,11 @@
       </c>
     </row>
     <row r="2" ht="17" customHeight="1" s="17">
-      <c r="A2" s="92" t="n"/>
+      <c r="A2" s="92" t="inlineStr">
+        <is>
+          <t>PRD</t>
+        </is>
+      </c>
       <c r="B2" s="30" t="inlineStr">
         <is>
           <t>Kubernetes Cluster</t>
@@ -3231,7 +3036,7 @@
   <dimension ref="A1:M148"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -3848,10 +3653,10 @@
         </is>
       </c>
       <c r="E29" s="56" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F29" s="30" t="n">
-        <v>62</v>
+        <v>1022</v>
       </c>
       <c r="G29" s="30" t="b">
         <v>1</v>
@@ -3889,10 +3694,10 @@
         </is>
       </c>
       <c r="E30" s="30" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F30" s="30" t="n">
-        <v>62</v>
+        <v>1022</v>
       </c>
       <c r="G30" s="30" t="b">
         <v>1</v>
@@ -3930,10 +3735,10 @@
         </is>
       </c>
       <c r="E31" s="30" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F31" s="30" t="n">
-        <v>62</v>
+        <v>1022</v>
       </c>
       <c r="G31" s="30" t="b">
         <v>0</v>
@@ -3971,10 +3776,10 @@
         </is>
       </c>
       <c r="E32" s="30" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F32" s="30" t="n">
-        <v>62</v>
+        <v>1022</v>
       </c>
       <c r="G32" s="30" t="b">
         <v>0</v>
@@ -5978,7 +5783,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A2" sqref="A2:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -6191,8 +5996,8 @@
   </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="Y21" sqref="Y21"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -6210,13 +6015,14 @@
   </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="S1" zoomScale="87" zoomScaleNormal="163" workbookViewId="0">
-      <selection activeCell="AB26" sqref="AB26"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6226,16 +6032,227 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col width="40.6640625" customWidth="1" style="57" min="1" max="1"/>
+    <col width="28.6640625" customWidth="1" style="57" min="2" max="2"/>
+    <col width="9" customWidth="1" style="57" min="3" max="3"/>
+    <col width="79.33203125" customWidth="1" style="57" min="4" max="4"/>
+    <col width="9" customWidth="1" style="57" min="5" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16" customHeight="1" s="17">
+      <c r="A1" s="60" t="inlineStr">
+        <is>
+          <t>Artifact</t>
+        </is>
+      </c>
+      <c r="B1" s="60" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
+      <c r="C1" s="60" t="inlineStr">
+        <is>
+          <t>Version</t>
+        </is>
+      </c>
+      <c r="D1" s="59" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="58" t="inlineStr">
+        <is>
+          <t>terraform-oci-cloudbricks-network-artifacts</t>
+        </is>
+      </c>
+      <c r="B2" s="58" t="inlineStr">
+        <is>
+          <t>github.com/oracle-devrel/</t>
+        </is>
+      </c>
+      <c r="C2" s="58" t="inlineStr">
+        <is>
+          <t>v2.0.1</t>
+        </is>
+      </c>
+      <c r="D2" s="58" t="inlineStr">
+        <is>
+          <t>git::ssh://git@github.com/oracle-devrel/terraform-oci-cloudbricks-network-artifacts.git?ref=v2.0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="69" t="inlineStr">
+        <is>
+          <t>terraform-oci-cloudbricks-compartment</t>
+        </is>
+      </c>
+      <c r="B3" s="58" t="inlineStr">
+        <is>
+          <t>github.com/oracle-devrel/</t>
+        </is>
+      </c>
+      <c r="C3" s="58" t="inlineStr">
+        <is>
+          <t>v1.0.3</t>
+        </is>
+      </c>
+      <c r="D3" s="58" t="inlineStr">
+        <is>
+          <t>git::ssh://git@github.com/oracle-devrel/terraform-oci-cloudbricks-compartment.git?ref=v1.0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="69" t="n"/>
+      <c r="B4" s="58" t="n"/>
+      <c r="C4" s="69" t="n"/>
+      <c r="D4" s="58" t="str"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="58" t="n"/>
+      <c r="B5" s="58" t="n"/>
+      <c r="C5" s="58" t="n"/>
+      <c r="D5" s="58" t="str"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="58" t="n"/>
+      <c r="B6" s="58" t="n"/>
+      <c r="C6" s="58" t="n"/>
+      <c r="D6" s="58" t="str"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="58" t="n"/>
+      <c r="B7" s="58" t="n"/>
+      <c r="C7" s="58" t="n"/>
+      <c r="D7" s="58" t="str"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="58" t="n"/>
+      <c r="B8" s="58" t="n"/>
+      <c r="C8" s="58" t="n"/>
+      <c r="D8" s="58" t="str"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="58" t="n"/>
+      <c r="B9" s="58" t="n"/>
+      <c r="C9" s="58" t="n"/>
+      <c r="D9" s="58" t="str"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="58" t="n"/>
+      <c r="B10" s="58" t="n"/>
+      <c r="C10" s="58" t="n"/>
+      <c r="D10" s="58" t="str"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="58" t="n"/>
+      <c r="B11" s="58" t="n"/>
+      <c r="C11" s="58" t="n"/>
+      <c r="D11" s="58" t="str"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="58" t="n"/>
+      <c r="B12" s="58" t="n"/>
+      <c r="C12" s="58" t="n"/>
+      <c r="D12" s="58" t="str"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="58" t="n"/>
+      <c r="B13" s="58" t="n"/>
+      <c r="C13" s="58" t="n"/>
+      <c r="D13" s="58" t="str"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="58" t="n"/>
+      <c r="B14" s="58" t="n"/>
+      <c r="C14" s="58" t="n"/>
+      <c r="D14" s="58" t="str"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="58" t="n"/>
+      <c r="B15" s="58" t="n"/>
+      <c r="C15" s="58" t="n"/>
+      <c r="D15" s="58" t="str"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="58" t="n"/>
+      <c r="B16" s="58" t="n"/>
+      <c r="C16" s="58" t="n"/>
+      <c r="D16" s="58" t="str"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="58" t="n"/>
+      <c r="B17" s="58" t="n"/>
+      <c r="C17" s="58" t="n"/>
+      <c r="D17" s="58" t="str"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="58" t="n"/>
+      <c r="B18" s="58" t="n"/>
+      <c r="C18" s="58" t="n"/>
+      <c r="D18" s="58" t="str"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="58" t="n"/>
+      <c r="B19" s="58" t="n"/>
+      <c r="C19" s="58" t="n"/>
+      <c r="D19" s="58" t="str"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="58" t="n"/>
+      <c r="B20" s="58" t="n"/>
+      <c r="C20" s="58" t="n"/>
+      <c r="D20" s="58" t="str"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="58" t="n"/>
+      <c r="B21" s="58" t="n"/>
+      <c r="C21" s="58" t="n"/>
+      <c r="D21" s="58" t="str"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="58" t="n"/>
+      <c r="B22" s="58" t="n"/>
+      <c r="C22" s="58" t="n"/>
+      <c r="D22" s="58" t="str"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="58" t="n"/>
+      <c r="B23" s="58" t="n"/>
+      <c r="C23" s="58" t="n"/>
+      <c r="D23" s="58" t="str"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="58" t="n"/>
+      <c r="B24" s="58" t="n"/>
+      <c r="C24" s="58" t="n"/>
+      <c r="D24" s="58" t="str"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="58" t="n"/>
+      <c r="B25" s="58" t="n"/>
+      <c r="C25" s="58" t="n"/>
+      <c r="D25" s="58" t="str"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="58" t="n"/>
+      <c r="B26" s="58" t="n"/>
+      <c r="C26" s="58" t="n"/>
+      <c r="D26" s="58" t="str"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6245,14 +6262,92 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col width="16" customWidth="1" style="57" min="1" max="1"/>
+    <col width="70.33203125" customWidth="1" style="57" min="2" max="2"/>
+    <col width="9" customWidth="1" style="57" min="3" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16" customHeight="1" s="17">
+      <c r="A1" s="60" t="inlineStr">
+        <is>
+          <t>Parameter</t>
+        </is>
+      </c>
+      <c r="B1" s="60" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="58" t="inlineStr">
+        <is>
+          <t>tenancy_ocid</t>
+        </is>
+      </c>
+      <c r="B2" s="69" t="inlineStr">
+        <is>
+          <t>ocid1.tenancy.oc1..aaaaaaaae4fky66zxlc3nhlsx4i3utq4hchaxieu5ygm44vx6t2qas4yec4q</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="58" t="inlineStr">
+        <is>
+          <t>region</t>
+        </is>
+      </c>
+      <c r="B3" s="69" t="inlineStr">
+        <is>
+          <t>sa-santiago-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="58" t="inlineStr">
+        <is>
+          <t>user_ocid</t>
+        </is>
+      </c>
+      <c r="B4" s="69" t="inlineStr">
+        <is>
+          <t>ocid1.user.oc1..aaaaaaaad727zxb3lict64henfdecajrwfis7rbg5lz4ja2lvqkvktotvwka</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="58" t="inlineStr">
+        <is>
+          <t>fingerprint</t>
+        </is>
+      </c>
+      <c r="B5" s="69" t="inlineStr">
+        <is>
+          <t>60:ab:f7:ee:8f:41:76:47:fa:cb:5f:ff:1b:42:13:76</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="58" t="inlineStr">
+        <is>
+          <t>private_key_path</t>
+        </is>
+      </c>
+      <c r="B6" s="69" t="inlineStr">
+        <is>
+          <t>/home/ubuntu/.ssh/private.pem</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>